--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ereg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ereg-Egfr.xlsx
@@ -534,7 +534,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07490066666666666</v>
+        <v>0.07490066666666667</v>
       </c>
       <c r="H2">
         <v>0.224702</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>0.1561918582133333</v>
+        <v>0.03072872253977778</v>
       </c>
       <c r="R2">
-        <v>1.40572672392</v>
+        <v>0.276558502858</v>
       </c>
       <c r="S2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="T2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07490066666666666</v>
+        <v>0.07490066666666667</v>
       </c>
       <c r="H3">
         <v>0.224702</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
         <v>7.632241089815333</v>
       </c>
       <c r="R3">
-        <v>68.690169808338</v>
+        <v>68.69016980833801</v>
       </c>
       <c r="S3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="T3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07490066666666666</v>
+        <v>0.07490066666666667</v>
       </c>
       <c r="H4">
         <v>0.224702</v>
@@ -679,13 +679,13 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
         <v>1.117618837864667</v>
@@ -694,10 +694,10 @@
         <v>10.058569540782</v>
       </c>
       <c r="S4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="T4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
     </row>
   </sheetData>
